--- a/legislator/property/output/normal/林國正_2013-12-24_財產申報表_tmp399c1.xlsx
+++ b/legislator/property/output/normal/林國正_2013-12-24_財產申報表_tmp399c1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="68">
   <si>
     <t>土地坐落</t>
   </si>
@@ -184,7 +184,19 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>潤泰全球股份有限公司</t>
+  </si>
+  <si>
+    <t>2013-12-24</t>
   </si>
   <si>
     <t>債務人</t>
@@ -1101,13 +1113,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1126,13 +1138,22 @@
       <c r="G1" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -1148,6 +1169,15 @@
       </c>
       <c r="G2" s="2">
         <v>4230</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1742</v>
       </c>
     </row>
   </sheetData>
@@ -1168,19 +1198,19 @@
         <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1188,22 +1218,22 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2">
         <v>5890212</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林國正_2013-12-24_財產申報表_tmp399c1.xlsx
+++ b/legislator/property/output/normal/林國正_2013-12-24_財產申報表_tmp399c1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
   <si>
     <t>土地坐落</t>
   </si>
@@ -184,6 +184,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -194,6 +197,9 @@
   </si>
   <si>
     <t>潤泰全球股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2013-12-24</t>
@@ -1113,13 +1119,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1147,13 +1153,16 @@
       <c r="J1" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -1171,12 +1180,15 @@
         <v>4230</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>1742</v>
       </c>
     </row>
@@ -1198,19 +1210,19 @@
         <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1218,22 +1230,22 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2">
         <v>5890212</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林國正_2013-12-24_財產申報表_tmp399c1.xlsx
+++ b/legislator/property/output/normal/林國正_2013-12-24_財產申報表_tmp399c1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
   <si>
     <t>土地坐落</t>
   </si>
@@ -187,6 +187,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -196,13 +199,25 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>潤泰全球股份有限公司</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2013-12-24</t>
+  </si>
+  <si>
+    <t>tmp399c1</t>
   </si>
   <si>
     <t>債務人</t>
@@ -1119,13 +1134,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1156,13 +1171,22 @@
       <c r="K1" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -1180,16 +1204,25 @@
         <v>4230</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>1742</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="2">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1210,19 +1243,19 @@
         <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1230,22 +1263,22 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2">
         <v>5890212</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林國正_2013-12-24_財產申報表_tmp399c1.xlsx
+++ b/legislator/property/output/normal/林國正_2013-12-24_財產申報表_tmp399c1.xlsx
@@ -20,9 +20,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="80">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>高雄市鼓山區龍北段00070000地號</t>
+  </si>
+  <si>
+    <t>10000分之110</t>
+  </si>
+  <si>
+    <t>吳美惠</t>
+  </si>
+  <si>
+    <t>102年07月22日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>15150000(含2車位）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-24</t>
+  </si>
+  <si>
+    <t>林國正</t>
+  </si>
+  <si>
+    <t>tmp399c1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -43,43 +118,22 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>高雄市鼓山區龍北段0007-0000 地號</t>
-  </si>
-  <si>
-    <t>10000分之 110</t>
-  </si>
-  <si>
-    <t>吳美惠</t>
-  </si>
-  <si>
-    <t>102 年 07 月22日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>15，150，000(含 2車位）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>高雄市鼓山區龍北段00260-000 建號</t>
-  </si>
-  <si>
-    <t>高雄市鼓山區龍北段00344-000 建號</t>
+    <t>高雄市鼓山區龍北段00260000建號</t>
+  </si>
+  <si>
+    <t>高雄市鼓山區龍北段00344000建號</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>100000 分 之 1107</t>
-  </si>
-  <si>
-    <t>102 年 07 月22曰</t>
-  </si>
-  <si>
-    <t>1，020，000(共 同使用部分含 2車位）</t>
+    <t>100000分之1107</t>
+  </si>
+  <si>
+    <t>102年07月22曰</t>
+  </si>
+  <si>
+    <t>1020000(共同使用部分含2車位）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -94,16 +148,13 @@
     <t>BluebirdSylphyGllTS(客車)</t>
   </si>
   <si>
-    <t>納智捷L91 M/LD</t>
-  </si>
-  <si>
-    <t>林國正</t>
-  </si>
-  <si>
-    <t>98年10月 12日</t>
-  </si>
-  <si>
-    <t>102 年 01 月15曰</t>
+    <t>納智捷L91MLD</t>
+  </si>
+  <si>
+    <t>98年10月12日</t>
+  </si>
+  <si>
+    <t>102年01月15曰</t>
   </si>
   <si>
     <t>買賣.</t>
@@ -124,22 +175,22 @@
     <t>種類</t>
   </si>
   <si>
-    <t>國泰世華商業銀行南高雄 分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行基隆路 分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行港都分 行</t>
-  </si>
-  <si>
-    <t>台北公館郵局（第1 3支 局）</t>
-  </si>
-  <si>
-    <t>梧棲郵局（第4 2支局）</t>
-  </si>
-  <si>
-    <t>高雄金福路郵局(第4 4支 局）</t>
+    <t>國泰世華商業銀行南高雄分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行基隆路分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行港都分行</t>
+  </si>
+  <si>
+    <t>台北公館郵局（第13支局）</t>
+  </si>
+  <si>
+    <t>梧棲郵局（第42支局）</t>
+  </si>
+  <si>
+    <t>高雄金福路郵局(第44支局）</t>
   </si>
   <si>
     <t>華南商業銀行北高雄分行</t>
@@ -154,7 +205,7 @@
     <t>高雄銀行營業部</t>
   </si>
   <si>
-    <t>兆豐國際商業銀行三民分 行</t>
+    <t>兆豐國際商業銀行三民分行</t>
   </si>
   <si>
     <t>活期存款</t>
@@ -166,12 +217,6 @@
     <t>活期儲蓄存款</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -184,42 +229,12 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>潤泰全球股份有限公司</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-12-24</t>
-  </si>
-  <si>
-    <t>tmp399c1</t>
-  </si>
-  <si>
     <t>債務人</t>
   </si>
   <si>
@@ -238,10 +253,10 @@
     <t>房屋貸款</t>
   </si>
   <si>
-    <t>兆豐國際商業銀行三民分行 高雄市鼓山區中華一路225 號</t>
-  </si>
-  <si>
-    <t>102年07月 23日</t>
+    <t>兆豐國際商業銀行三民分行高雄市鼓山區中華一路225號</t>
+  </si>
+  <si>
+    <t>102年07月23日</t>
   </si>
   <si>
     <t>買房屋貸款</t>
@@ -603,13 +618,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,31 +646,73 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>2275.44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1742</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -673,25 +730,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -699,22 +756,22 @@
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
         <v>150.11</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2">
         <v>5480000</v>
@@ -725,25 +782,25 @@
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2">
         <v>11097.76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -761,22 +818,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -784,19 +841,19 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2">
         <v>1997</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2">
         <v>740000</v>
@@ -807,19 +864,19 @@
         <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2">
         <v>2198</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="G3" s="2">
         <v>930000</v>
@@ -840,13 +897,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -854,10 +911,10 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2">
         <v>21000</v>
@@ -868,10 +925,10 @@
         <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2">
         <v>16000</v>
@@ -892,19 +949,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -912,16 +969,16 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2">
         <v>3014</v>
@@ -932,16 +989,16 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2">
         <v>720</v>
@@ -952,16 +1009,16 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2">
         <v>790443</v>
@@ -972,16 +1029,16 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2">
         <v>1042</v>
@@ -992,16 +1049,16 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2">
         <v>380</v>
@@ -1012,16 +1069,16 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2">
         <v>27</v>
@@ -1032,16 +1089,16 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2">
         <v>61589</v>
@@ -1052,16 +1109,16 @@
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2">
         <v>18785</v>
@@ -1072,16 +1129,16 @@
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2">
         <v>1521915</v>
@@ -1092,16 +1149,16 @@
         <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F11" s="2">
         <v>84971</v>
@@ -1112,16 +1169,16 @@
         <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F12" s="2">
         <v>372270</v>
@@ -1142,43 +1199,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1186,10 +1243,10 @@
         <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2">
         <v>423</v>
@@ -1198,28 +1255,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2">
         <v>4230</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L2" s="2">
         <v>1742</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="N2" s="2">
         <v>63</v>
@@ -1240,22 +1297,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1263,22 +1320,22 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2">
         <v>5890212</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林國正_2013-12-24_財產申報表_tmp399c1.xlsx
+++ b/legislator/property/output/normal/林國正_2013-12-24_財產申報表_tmp399c1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="62">
   <si>
     <t>name</t>
   </si>
@@ -70,24 +70,48 @@
     <t>total</t>
   </si>
   <si>
+    <t>高雄市鼓山區龍北段00070000地號</t>
+  </si>
+  <si>
+    <t>10000分之110</t>
+  </si>
+  <si>
+    <t>吳美惠</t>
+  </si>
+  <si>
+    <t>102年07月22日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>15150000(含2車位）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-24</t>
+  </si>
+  <si>
+    <t>林國正</t>
+  </si>
+  <si>
+    <t>tmp399c1</t>
+  </si>
+  <si>
     <t>高雄市鼓山區龍北段00260000建號</t>
   </si>
   <si>
+    <t>高雄市鼓山區龍北段00344000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>吳美惠</t>
-  </si>
-  <si>
-    <t>102年07月22日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>高雄市鼓山區龍北段00344000建號</t>
-  </si>
-  <si>
     <t>100000分之1107</t>
   </si>
   <si>
@@ -106,9 +130,6 @@
     <t>納智捷L91MLD</t>
   </si>
   <si>
-    <t>林國正</t>
-  </si>
-  <si>
     <t>102年01月15曰</t>
   </si>
   <si>
@@ -167,6 +188,12 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>潤泰全球股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -537,13 +564,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,6 +618,59 @@
       </c>
       <c r="Q1" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2275.44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1742</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.011</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>25.02984</v>
       </c>
     </row>
   </sheetData>
@@ -600,59 +680,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2">
         <v>150.11</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1">
-        <v>5480000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2">
-        <v>11097.76</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="2">
+        <v>5480000</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1742</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2">
+        <v>18</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>150.11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2">
+        <v>11097.76</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1742</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="2">
+        <v>19</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.01107</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>122.8522032</v>
       </c>
     </row>
   </sheetData>
@@ -661,6 +848,485 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1997</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1">
+        <v>740000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1997</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2">
+        <v>740000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2198</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2">
+        <v>930000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2">
+        <v>790443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>51</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>52</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2">
+        <v>61589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>53</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2">
+        <v>18785</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>54</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1521915</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2">
+        <v>84971</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>56</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="2">
+        <v>372270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>63</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2">
+        <v>423</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4230</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1742</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -670,400 +1336,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1997</v>
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>59</v>
+      </c>
+      <c r="E1" s="1">
+        <v>5890212</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1">
-        <v>740000</v>
+        <v>60</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2198</v>
+        <v>58</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>59</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5890212</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2">
-        <v>930000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2">
-        <v>16000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1">
-        <v>3014</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="2">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>48</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="2">
-        <v>790443</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>49</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>50</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="2">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>51</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>52</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2">
-        <v>61589</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>53</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="2">
-        <v>18785</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>54</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1521915</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>55</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="2">
-        <v>84971</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>56</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="2">
-        <v>372270</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:14">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="1">
-        <v>5890212</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林國正_2013-12-24_財產申報表_tmp399c1.xlsx
+++ b/legislator/property/output/normal/林國正_2013-12-24_財產申報表_tmp399c1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="63">
   <si>
     <t>name</t>
   </si>
@@ -121,13 +121,16 @@
     <t>1020000(共同使用部分含2車位）</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>BluebirdSylphyGllTS(客車)</t>
   </si>
   <si>
+    <t>納智捷L91MLD</t>
+  </si>
+  <si>
     <t>98年10月12日</t>
-  </si>
-  <si>
-    <t>納智捷L91MLD</t>
   </si>
   <si>
     <t>102年01月15曰</t>
@@ -849,38 +852,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1">
-        <v>1997</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1">
-        <v>740000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2">
         <v>1997</v>
@@ -889,7 +913,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
@@ -897,8 +921,29 @@
       <c r="G2" s="2">
         <v>740000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1742</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>30</v>
       </c>
@@ -912,13 +957,34 @@
         <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2">
         <v>930000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1742</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="2">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -936,7 +1002,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
@@ -950,7 +1016,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
@@ -964,7 +1030,7 @@
         <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -988,13 +1054,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -1008,13 +1074,13 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -1028,13 +1094,13 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -1048,13 +1114,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
@@ -1068,13 +1134,13 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
@@ -1088,13 +1154,13 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
@@ -1108,13 +1174,13 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
@@ -1128,13 +1194,13 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
@@ -1148,13 +1214,13 @@
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>25</v>
@@ -1168,13 +1234,13 @@
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>25</v>
@@ -1188,13 +1254,13 @@
         <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>18</v>
@@ -1208,13 +1274,13 @@
         <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
@@ -1244,13 +1310,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1282,7 +1348,7 @@
         <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1294,13 +1360,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2">
         <v>4230</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -1336,22 +1402,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1">
         <v>5890212</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1359,22 +1425,22 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2">
         <v>5890212</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林國正_2013-12-24_財產申報表_tmp399c1.xlsx
+++ b/legislator/property/output/normal/林國正_2013-12-24_財產申報表_tmp399c1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="65">
   <si>
     <t>name</t>
   </si>
@@ -121,6 +121,9 @@
     <t>1020000(共同使用部分含2車位）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -137,6 +140,9 @@
   </si>
   <si>
     <t>買賣.</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>新臺幣</t>
@@ -765,7 +771,7 @@
         <v>5480000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>23</v>
@@ -818,7 +824,7 @@
         <v>32</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>23</v>
@@ -863,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -904,7 +910,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2">
         <v>1997</v>
@@ -913,7 +919,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
@@ -922,7 +928,7 @@
         <v>740000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -948,7 +954,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2">
         <v>2198</v>
@@ -957,16 +963,16 @@
         <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2">
         <v>930000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -1002,7 +1008,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
@@ -1016,7 +1022,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
@@ -1030,7 +1036,7 @@
         <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -1054,13 +1060,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -1074,13 +1080,13 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -1094,13 +1100,13 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -1114,13 +1120,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
@@ -1134,13 +1140,13 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
@@ -1154,13 +1160,13 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
@@ -1174,13 +1180,13 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
@@ -1194,13 +1200,13 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
@@ -1214,13 +1220,13 @@
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>25</v>
@@ -1234,13 +1240,13 @@
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>25</v>
@@ -1254,13 +1260,13 @@
         <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>18</v>
@@ -1274,13 +1280,13 @@
         <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
@@ -1310,13 +1316,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1348,7 +1354,7 @@
         <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1360,13 +1366,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2">
         <v>4230</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -1402,22 +1408,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1">
         <v>5890212</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1425,22 +1431,22 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2">
         <v>5890212</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林國正_2013-12-24_財產申報表_tmp399c1.xlsx
+++ b/legislator/property/output/normal/林國正_2013-12-24_財產申報表_tmp399c1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -145,58 +145,70 @@
     <t>car</t>
   </si>
   <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
     <t>國泰世華商業銀行南高雄分行</t>
   </si>
   <si>
+    <t>台北富邦商業銀行基隆路分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行港都分行</t>
+  </si>
+  <si>
+    <t>台北公館郵局（第13支局）</t>
+  </si>
+  <si>
+    <t>梧棲郵局（第42支局）</t>
+  </si>
+  <si>
+    <t>高雄金福路郵局(第44支局）</t>
+  </si>
+  <si>
+    <t>華南商業銀行北高雄分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行南高雄分行</t>
+  </si>
+  <si>
+    <t>高雄銀行七賢分行</t>
+  </si>
+  <si>
+    <t>高雄銀行營業部</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行三民分行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
-    <t>台北富邦商業銀行基隆路分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行港都分行</t>
-  </si>
-  <si>
-    <t>台北公館郵局（第13支局）</t>
-  </si>
-  <si>
-    <t>梧棲郵局（第42支局）</t>
-  </si>
-  <si>
-    <t>高雄金福路郵局(第44支局）</t>
-  </si>
-  <si>
-    <t>華南商業銀行北高雄分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行南高雄分行</t>
-  </si>
-  <si>
-    <t>高雄銀行七賢分行</t>
-  </si>
-  <si>
-    <t>高雄銀行營業部</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行三民分行</t>
-  </si>
-  <si>
     <t>中華郵政劃撥儲金</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>潤泰全球股份有限公司</t>
@@ -1000,29 +1012,50 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
@@ -1030,19 +1063,61 @@
       <c r="D2" s="2">
         <v>21000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1742</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2">
         <v>16000</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1742</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1052,41 +1127,62 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1">
-        <v>3014</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -1094,19 +1190,40 @@
       <c r="F2" s="2">
         <v>3014</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1742</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -1114,19 +1231,40 @@
       <c r="F3" s="2">
         <v>720</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1742</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
@@ -1134,19 +1272,40 @@
       <c r="F4" s="2">
         <v>790443</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1742</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
@@ -1154,19 +1313,40 @@
       <c r="F5" s="2">
         <v>1042</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1742</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
@@ -1174,19 +1354,40 @@
       <c r="F6" s="2">
         <v>380</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1742</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
@@ -1194,19 +1395,40 @@
       <c r="F7" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1742</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
@@ -1214,19 +1436,40 @@
       <c r="F8" s="2">
         <v>61589</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1742</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>25</v>
@@ -1234,19 +1477,40 @@
       <c r="F9" s="2">
         <v>18785</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1742</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>25</v>
@@ -1254,19 +1518,40 @@
       <c r="F10" s="2">
         <v>1521915</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1742</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>18</v>
@@ -1274,25 +1559,67 @@
       <c r="F11" s="2">
         <v>84971</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1742</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="2">
         <v>372270</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1742</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="2">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1316,13 +1643,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1354,7 +1681,7 @@
         <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1366,13 +1693,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2">
         <v>4230</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -1408,22 +1735,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1">
         <v>5890212</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1431,22 +1758,22 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2">
         <v>5890212</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林國正_2013-12-24_財產申報表_tmp399c1.xlsx
+++ b/legislator/property/output/normal/林國正_2013-12-24_財產申報表_tmp399c1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="72">
   <si>
     <t>name</t>
   </si>
@@ -217,6 +217,12 @@
     <t>stock</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>房屋貸款</t>
   </si>
   <si>
@@ -227,6 +233,9 @@
   </si>
   <si>
     <t>買房屋貸款</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -1727,53 +1736,95 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="1">
-        <v>5890212</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2">
         <v>5890212</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1742</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
